--- a/biology/Zoologie/Amatitlania_siquia/Amatitlania_siquia.xlsx
+++ b/biology/Zoologie/Amatitlania_siquia/Amatitlania_siquia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amatitlania siquia est une espèce de poissons de la famille des cichlidés et de l'ordre des Cichliformes. À ne pas confondre avec Amatitlania nigrofasciata.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Amatitlania siquia a été décrite en 2007 par l'ichtyologiste mexicain Juan Jacobo Schmitter-Soto (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Amatitlania siquia a été décrite en 2007 par l'ichtyologiste mexicain Juan Jacobo Schmitter-Soto (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de cichlidés est endémique d'Amérique centrale, se rencontre au Costa Rica, Nicaragua et sur la face Atlantique du Honduras[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de cichlidés est endémique d'Amérique centrale, se rencontre au Costa Rica, Nicaragua et sur la face Atlantique du Honduras.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amatitlania siquia mesure jusqu'à 79 mm de longueur[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amatitlania siquia mesure jusqu'à 79 mm de longueur.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Psychologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, des chercheurs ont démontré qu’Amatitlania siquia, qui est une espèce monogame, développe une attitude pessimiste quand des individus sont privés de la présence de leur partenaire[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, des chercheurs ont démontré qu’Amatitlania siquia, qui est une espèce monogame, développe une attitude pessimiste quand des individus sont privés de la présence de leur partenaire,.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Croisement, hybridation, sélection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est impératif de maintenir cette espèce, comme les autres membres du genre Amatitlania, seule ou en compagnie d'autres espèces d'autres genres, mais de provenance similaire, afin d'éviter tout risque de croisement. Le commerce aquariophile a également vu apparaitre un grand nombre de spécimens provenant d'Asie notamment et aux couleurs des plus farfelues ou albinos. En raison de la sélection, hybridation et autres procédés chimiques et barbares de laboratoires.
 </t>
@@ -666,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Juan J. Schmitter-Soto, « A systematic revision of the genus Archocentrus (Perciformes: Cichlidae), with the description of two new genera and six new species », Zootaxa, Magnolia Press (d), vol. 1603, no 1,‎ 28 septembre 2007, p. 1-78 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.1603.1.1, lire en ligne)</t>
         </is>
